--- a/test/xls/ShopStatic.xlsx
+++ b/test/xls/ShopStatic.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="GoldMintShopStatic" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="57">
   <si>
     <t>ClassName</t>
   </si>
@@ -100,70 +100,129 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>标签类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShopItemTagType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum(EnumShopItemTagType,Hot(热卖),Promotion(促销))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShopStaticGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PropShopStatic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具商店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum(EnumShopItemType,Coin(金币),Mint(薄荷),Prop_Grass(道具猫草),Prop_Toy(道具玩具))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnumShopItemType</t>
+  </si>
+  <si>
+    <t>ShopItemID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店物品ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具猫草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具玩具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShopItemCNPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShopItemENPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.rockvr.arpet_coin_1</t>
+  </si>
+  <si>
+    <t>com.rockvr.arpet_coin_2</t>
+  </si>
+  <si>
+    <t>com.rockvr.arpet_coin_3</t>
+  </si>
+  <si>
+    <t>com.rockvr.arpet_coin_4</t>
+  </si>
+  <si>
+    <t>com.rockvr.arpet_coin_5</t>
+  </si>
+  <si>
+    <t>¥6.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>¥12.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>¥40.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>¥78.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>¥18.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>金币</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>薄荷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShopItemTagType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enum(EnumShopItemTagType,Hot(热卖),Promotion(促销))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>热卖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>促销</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShopStaticGroup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PropShopStatic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具商店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enum(EnumShopItemType,Coin(金币),Mint(薄荷),Prop_Grass(道具猫草),Prop_Toy(道具玩具))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnumShopItemType</t>
-  </si>
-  <si>
-    <t>ShopItemID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商店物品ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具猫草</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具玩具</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -171,6 +230,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -207,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -226,6 +288,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="26" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -235,6 +299,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -527,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -539,10 +606,14 @@
     <col min="3" max="3" width="17.25" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.625" customWidth="1"/>
+    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.875" customWidth="1"/>
+    <col min="9" max="9" width="19.5" customWidth="1"/>
+    <col min="10" max="10" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -552,8 +623,9 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -563,19 +635,21 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -586,19 +660,28 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
         <v>20</v>
       </c>
       <c r="F4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" t="s">
         <v>21</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -607,19 +690,28 @@
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
         <v>18</v>
       </c>
       <c r="F5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" t="s">
         <v>19</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="I5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -627,22 +719,31 @@
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -664,8 +765,17 @@
       <c r="G7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -681,14 +791,23 @@
       <c r="E8" t="b">
         <v>0</v>
       </c>
-      <c r="F8" t="b">
-        <v>0</v>
+      <c r="F8" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -710,8 +829,17 @@
       <c r="G9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
@@ -733,34 +861,151 @@
       <c r="G10" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4">
-        <v>1</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>24</v>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="4">
+        <v>55</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="3">
+        <v>500</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B12">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4">
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="3">
         <v>2</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="4"/>
+      <c r="F12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" s="8">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="3">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" s="8">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="3">
+        <v>6</v>
+      </c>
+      <c r="F14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J14" s="8">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="3">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="3">
+        <v>9000</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" s="8">
+        <v>11.99</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -773,7 +1018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -791,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -802,7 +1047,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -813,7 +1058,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -830,7 +1075,7 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
         <v>20</v>
@@ -851,7 +1096,7 @@
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
         <v>18</v>
@@ -871,10 +1116,10 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>15</v>
@@ -984,7 +1229,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -1005,7 +1250,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D12" s="4">
         <v>2</v>
